--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,90 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>gabriel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>araujo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>gabrielaraujo2334@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31973413991</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Araujo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EVAVILMA-ARAUJO@HOTMAIL.COM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31973413991</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Araujo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>adas@</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3141241</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
